--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFD303B-0ADB-47A0-AEEE-03B25D981F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BC6DA-472D-4B92-9A85-7A8ABAE68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E7B0F93-C516-41EF-8E35-407EA485BE71}"/>
   </bookViews>

--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BC6DA-472D-4B92-9A85-7A8ABAE68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E0ED9-E6AC-421E-B16F-C9E3469860B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E7B0F93-C516-41EF-8E35-407EA485BE71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12145" uniqueCount="4483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12838" uniqueCount="4753">
   <si>
     <t>Aziz Ahamed Patel</t>
   </si>
@@ -13483,6 +13483,816 @@
   </si>
   <si>
     <t>Hithesh O</t>
+  </si>
+  <si>
+    <t>SIDDARAJU S</t>
+  </si>
+  <si>
+    <t>siddarajus8124@gmail.com</t>
+  </si>
+  <si>
+    <t>9148774783</t>
+  </si>
+  <si>
+    <t>Manoj M Jadav</t>
+  </si>
+  <si>
+    <t>manojmjadav28@gmail.com</t>
+  </si>
+  <si>
+    <t>8105415144</t>
+  </si>
+  <si>
+    <t>Prithviraj S Shiragannavar</t>
+  </si>
+  <si>
+    <t>prithvirajsshiragannavar@gmail.com</t>
+  </si>
+  <si>
+    <t>9880032810</t>
+  </si>
+  <si>
+    <t>B Shraddha Shetty</t>
+  </si>
+  <si>
+    <t>shraddhashettyshraddha18@gmail.com</t>
+  </si>
+  <si>
+    <t>7204652398</t>
+  </si>
+  <si>
+    <t>Jitin Naik</t>
+  </si>
+  <si>
+    <t>naikjitin46@gmail.com</t>
+  </si>
+  <si>
+    <t>7338427944</t>
+  </si>
+  <si>
+    <t>Manojrao</t>
+  </si>
+  <si>
+    <t>kulkarnimanojrao@gmail.com</t>
+  </si>
+  <si>
+    <t>9019853266</t>
+  </si>
+  <si>
+    <t>Maneeksha</t>
+  </si>
+  <si>
+    <t>kulalmaneeksha@gmail.com</t>
+  </si>
+  <si>
+    <t>9353362624</t>
+  </si>
+  <si>
+    <t>Aeronautical Engineering</t>
+  </si>
+  <si>
+    <t>Rohan T M</t>
+  </si>
+  <si>
+    <t>rohantheeyar009@gmail.com</t>
+  </si>
+  <si>
+    <t>7204363564</t>
+  </si>
+  <si>
+    <t>Siddu</t>
+  </si>
+  <si>
+    <t>siddudhannoor@gmail.com</t>
+  </si>
+  <si>
+    <t>9008103980</t>
+  </si>
+  <si>
+    <t>Rakesh Heralagi</t>
+  </si>
+  <si>
+    <t>rakeshheralagi18@gmail.com</t>
+  </si>
+  <si>
+    <t>9740974068</t>
+  </si>
+  <si>
+    <t>Tilaka shindhe</t>
+  </si>
+  <si>
+    <t>Tilakshindhe24@gmail.com</t>
+  </si>
+  <si>
+    <t>8310979508</t>
+  </si>
+  <si>
+    <t>Veerapalli Vamsi</t>
+  </si>
+  <si>
+    <t>v.vamsi1307@gmail.com</t>
+  </si>
+  <si>
+    <t>8247615947</t>
+  </si>
+  <si>
+    <t>Soujanya Umadi</t>
+  </si>
+  <si>
+    <t>umadisoujanya@gmail.com</t>
+  </si>
+  <si>
+    <t>6361892161</t>
+  </si>
+  <si>
+    <t>Husain Rafi</t>
+  </si>
+  <si>
+    <t>afrazrafia1r2@gmail.com</t>
+  </si>
+  <si>
+    <t>8660741632</t>
+  </si>
+  <si>
+    <t>Priyanka Saloni</t>
+  </si>
+  <si>
+    <t>priyankasaloni6@gmail.com</t>
+  </si>
+  <si>
+    <t>6363865140</t>
+  </si>
+  <si>
+    <t>Kruthika S S</t>
+  </si>
+  <si>
+    <t>kruthika582661@gmail.com</t>
+  </si>
+  <si>
+    <t>9380361917</t>
+  </si>
+  <si>
+    <t>Vijeth tp</t>
+  </si>
+  <si>
+    <t>vijethtp81@gmail.com</t>
+  </si>
+  <si>
+    <t>7019746223</t>
+  </si>
+  <si>
+    <t>Harsha S Kulambi</t>
+  </si>
+  <si>
+    <t>harshasudheerk27@gmail.com</t>
+  </si>
+  <si>
+    <t>7019371449</t>
+  </si>
+  <si>
+    <t>Dikshith varshan RV</t>
+  </si>
+  <si>
+    <t>rvdikshithvarshan@gmail.com</t>
+  </si>
+  <si>
+    <t>9686830393</t>
+  </si>
+  <si>
+    <t>AMRUTA INSTITUTE OF ENGINEERING AND MANAGEMENT SCIENCES</t>
+  </si>
+  <si>
+    <t>Akshata samay</t>
+  </si>
+  <si>
+    <t>akshatasamay752@gmail.com</t>
+  </si>
+  <si>
+    <t>9110640440</t>
+  </si>
+  <si>
+    <t>abhishek.a98481557@gmail.com</t>
+  </si>
+  <si>
+    <t>7795846890</t>
+  </si>
+  <si>
+    <t>Nandish P Kubasad</t>
+  </si>
+  <si>
+    <t>kubasadnandish58@gmail.com</t>
+  </si>
+  <si>
+    <t>8151022482</t>
+  </si>
+  <si>
+    <t>ABHAY DIXITH HD</t>
+  </si>
+  <si>
+    <t>abi.dixith26@gmail.com</t>
+  </si>
+  <si>
+    <t>8861409453</t>
+  </si>
+  <si>
+    <t>Muralidhar Chavhan</t>
+  </si>
+  <si>
+    <t>muralidharchavan78@gmail.com</t>
+  </si>
+  <si>
+    <t>9886156325</t>
+  </si>
+  <si>
+    <t>Shilpa Shivaji Agasagi</t>
+  </si>
+  <si>
+    <t>shilpaagasagi24@gmail.com</t>
+  </si>
+  <si>
+    <t>7204060079</t>
+  </si>
+  <si>
+    <t>Prajna</t>
+  </si>
+  <si>
+    <t>prajnamadivala@gmail.com</t>
+  </si>
+  <si>
+    <t>9731304226</t>
+  </si>
+  <si>
+    <t>Kavana C</t>
+  </si>
+  <si>
+    <t>kavanac105@gmail.com</t>
+  </si>
+  <si>
+    <t>9611893194</t>
+  </si>
+  <si>
+    <t>Abhishek A Banakar</t>
+  </si>
+  <si>
+    <t>abhishekbanakar693@gmail.com</t>
+  </si>
+  <si>
+    <t>6363868832</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>patilankita3064@gmail.com</t>
+  </si>
+  <si>
+    <t>8088924837</t>
+  </si>
+  <si>
+    <t>Junaid Farhan H J</t>
+  </si>
+  <si>
+    <t>farhanjunaid568@gmail.com</t>
+  </si>
+  <si>
+    <t>6366327568</t>
+  </si>
+  <si>
+    <t>Lata Kanavalli</t>
+  </si>
+  <si>
+    <t>latakanavalli914@gmail.com</t>
+  </si>
+  <si>
+    <t>7411354930</t>
+  </si>
+  <si>
+    <t>Vittal shankar kodolli</t>
+  </si>
+  <si>
+    <t>vittalkodolli234@gmail.com</t>
+  </si>
+  <si>
+    <t>8147419114</t>
+  </si>
+  <si>
+    <t>Shrinidhi kaulgud</t>
+  </si>
+  <si>
+    <t>shrinidhin764@gmail.com</t>
+  </si>
+  <si>
+    <t>7760121152</t>
+  </si>
+  <si>
+    <t>Mohammed Fazlulla D</t>
+  </si>
+  <si>
+    <t>fazlullamohammedfazlullad@gmail.com</t>
+  </si>
+  <si>
+    <t>8722158455</t>
+  </si>
+  <si>
+    <t>Anjali M N</t>
+  </si>
+  <si>
+    <t>anjalimn2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9108036418</t>
+  </si>
+  <si>
+    <t>Varshitha D P</t>
+  </si>
+  <si>
+    <t>varshithaprakash376@gmail.com</t>
+  </si>
+  <si>
+    <t>7026743463</t>
+  </si>
+  <si>
+    <t>VARUN C N</t>
+  </si>
+  <si>
+    <t>varungowda1725@gmail.com</t>
+  </si>
+  <si>
+    <t>8050512419</t>
+  </si>
+  <si>
+    <t>Madhushree Umaluti</t>
+  </si>
+  <si>
+    <t>mumaluti@gmail.com</t>
+  </si>
+  <si>
+    <t>9019839483</t>
+  </si>
+  <si>
+    <t>Yashaswi Sunilkumar Mankame</t>
+  </si>
+  <si>
+    <t>ymankamemobile@gmail.com</t>
+  </si>
+  <si>
+    <t>8867001871</t>
+  </si>
+  <si>
+    <t>Syed Mohammed Rayan</t>
+  </si>
+  <si>
+    <t>rsyed1672@gmail.com</t>
+  </si>
+  <si>
+    <t>7676191376</t>
+  </si>
+  <si>
+    <t>Sameeksha S Jain</t>
+  </si>
+  <si>
+    <t>sameekshasjain@gmail.com</t>
+  </si>
+  <si>
+    <t>7204819970</t>
+  </si>
+  <si>
+    <t>Vaishnavi R</t>
+  </si>
+  <si>
+    <t>vaishnavi6540@gmail.com</t>
+  </si>
+  <si>
+    <t>8073410407</t>
+  </si>
+  <si>
+    <t>Kedar Bhogashetti</t>
+  </si>
+  <si>
+    <t>kedarbhogashetti@gmail.com</t>
+  </si>
+  <si>
+    <t>8660509671</t>
+  </si>
+  <si>
+    <t>Preetham HN</t>
+  </si>
+  <si>
+    <t>preethushiku@gmail.com</t>
+  </si>
+  <si>
+    <t>8618699252</t>
+  </si>
+  <si>
+    <t>Vishal Vathar</t>
+  </si>
+  <si>
+    <t>vishalvathar@gmail.com</t>
+  </si>
+  <si>
+    <t>9901275893</t>
+  </si>
+  <si>
+    <t>Suhana K Z</t>
+  </si>
+  <si>
+    <t>suhanakz915@gmail.com</t>
+  </si>
+  <si>
+    <t>7204020296</t>
+  </si>
+  <si>
+    <t>Kavya Chavhan</t>
+  </si>
+  <si>
+    <t>kavyachavhan71@gmail.com</t>
+  </si>
+  <si>
+    <t>7411431580</t>
+  </si>
+  <si>
+    <t>Lolakshi K M</t>
+  </si>
+  <si>
+    <t>lolakshikm948@gmail.com</t>
+  </si>
+  <si>
+    <t>8277494911</t>
+  </si>
+  <si>
+    <t>Fabin Martin p</t>
+  </si>
+  <si>
+    <t>fabinmartin111@gmail.com</t>
+  </si>
+  <si>
+    <t>8590354522</t>
+  </si>
+  <si>
+    <t>Sagar Salunke</t>
+  </si>
+  <si>
+    <t>sagar141salunke@gmail.com</t>
+  </si>
+  <si>
+    <t>8431331649</t>
+  </si>
+  <si>
+    <t>Sidharth</t>
+  </si>
+  <si>
+    <t>sidharthnambisan1604@gmail.com</t>
+  </si>
+  <si>
+    <t>8129619706</t>
+  </si>
+  <si>
+    <t>Shreyas Dorigol</t>
+  </si>
+  <si>
+    <t>shreyasdorigol@gmail.com</t>
+  </si>
+  <si>
+    <t>8431420988</t>
+  </si>
+  <si>
+    <t>Dhanamma pawale</t>
+  </si>
+  <si>
+    <t>girijagirija817@gmail.com</t>
+  </si>
+  <si>
+    <t>7348845584</t>
+  </si>
+  <si>
+    <t>Sahana B M</t>
+  </si>
+  <si>
+    <t>sahanabm286@gmail.com</t>
+  </si>
+  <si>
+    <t>9036162812</t>
+  </si>
+  <si>
+    <t>Sindhu M</t>
+  </si>
+  <si>
+    <t>sindhum5919@gmail.com</t>
+  </si>
+  <si>
+    <t>7022935919</t>
+  </si>
+  <si>
+    <t>Karthika k</t>
+  </si>
+  <si>
+    <t>karthika9758@gmail.com</t>
+  </si>
+  <si>
+    <t>7483909758</t>
+  </si>
+  <si>
+    <t>Jyoti Channayya Hiremath</t>
+  </si>
+  <si>
+    <t>jyotich1969@gmail.com</t>
+  </si>
+  <si>
+    <t>7353940516</t>
+  </si>
+  <si>
+    <t>Bindushree A N</t>
+  </si>
+  <si>
+    <t>binduuyadav25@gmail.com</t>
+  </si>
+  <si>
+    <t>8618222525</t>
+  </si>
+  <si>
+    <t>Veenatai</t>
+  </si>
+  <si>
+    <t>veenafakire54@gmail.com</t>
+  </si>
+  <si>
+    <t>7624906965</t>
+  </si>
+  <si>
+    <t>Samruddhi Babasaheb Jadhav</t>
+  </si>
+  <si>
+    <t>jsamrudhi52@gmail.com</t>
+  </si>
+  <si>
+    <t>9591782426</t>
+  </si>
+  <si>
+    <t>Abhinav A Hegde</t>
+  </si>
+  <si>
+    <t>abhinavahegde85@gmail.com</t>
+  </si>
+  <si>
+    <t>8762080252</t>
+  </si>
+  <si>
+    <t>Sakshi R.Ainapur</t>
+  </si>
+  <si>
+    <t>sakshira63@gmail.com</t>
+  </si>
+  <si>
+    <t>9148421940</t>
+  </si>
+  <si>
+    <t>BGMIT, Mudhol</t>
+  </si>
+  <si>
+    <t>VIDYA</t>
+  </si>
+  <si>
+    <t>brvidya158@gmail.com</t>
+  </si>
+  <si>
+    <t>9741300977</t>
+  </si>
+  <si>
+    <t>Jeevika V Thadur</t>
+  </si>
+  <si>
+    <t>thadurjeevika957@gmail.com</t>
+  </si>
+  <si>
+    <t>9741533884</t>
+  </si>
+  <si>
+    <t>Meghana Jigalur</t>
+  </si>
+  <si>
+    <t>jigalurmeghana@gmail.com</t>
+  </si>
+  <si>
+    <t>9448581412</t>
+  </si>
+  <si>
+    <t>Suprita Belagali</t>
+  </si>
+  <si>
+    <t>supritabelagali2004@gmail.com</t>
+  </si>
+  <si>
+    <t>6362559372</t>
+  </si>
+  <si>
+    <t>Arun k</t>
+  </si>
+  <si>
+    <t>arunaru7669@gmail.com</t>
+  </si>
+  <si>
+    <t>7259385639</t>
+  </si>
+  <si>
+    <t>Chandana G P</t>
+  </si>
+  <si>
+    <t>chandanagp1312@gmail.com</t>
+  </si>
+  <si>
+    <t>7411118933</t>
+  </si>
+  <si>
+    <t>MEGHANA L</t>
+  </si>
+  <si>
+    <t>meghana027megha004@gmail.com</t>
+  </si>
+  <si>
+    <t>7676942409</t>
+  </si>
+  <si>
+    <t>B Jestavi</t>
+  </si>
+  <si>
+    <t>bjestavi@gmail.com</t>
+  </si>
+  <si>
+    <t>7760773266</t>
+  </si>
+  <si>
+    <t>sdsagar001@gmail.com</t>
+  </si>
+  <si>
+    <t>9900764883</t>
+  </si>
+  <si>
+    <t>Smitha S Arali</t>
+  </si>
+  <si>
+    <t>smithasmithu2003@gmail.com</t>
+  </si>
+  <si>
+    <t>8296464963</t>
+  </si>
+  <si>
+    <t>Shivaraj yechhi</t>
+  </si>
+  <si>
+    <t>shivaraj9688@gmail.com</t>
+  </si>
+  <si>
+    <t>9019276282</t>
+  </si>
+  <si>
+    <t>Mahamad Adnan</t>
+  </si>
+  <si>
+    <t>ui.adnan7864@gmail.com</t>
+  </si>
+  <si>
+    <t>9513782867</t>
+  </si>
+  <si>
+    <t>Taiyaba</t>
+  </si>
+  <si>
+    <t>taiyabamustafa9632@gmail.com</t>
+  </si>
+  <si>
+    <t>7022373685</t>
+  </si>
+  <si>
+    <t>Hemanth S Gowda</t>
+  </si>
+  <si>
+    <t>hemanth.s.gowda0718@gmail.com</t>
+  </si>
+  <si>
+    <t>8073766875</t>
+  </si>
+  <si>
+    <t>Shushank Gowda s</t>
+  </si>
+  <si>
+    <t>shushankg005@gmail.com</t>
+  </si>
+  <si>
+    <t>8277113492</t>
+  </si>
+  <si>
+    <t>VIDYA MURAGANNAVAR</t>
+  </si>
+  <si>
+    <t>muragannavarvidya@gmail.com</t>
+  </si>
+  <si>
+    <t>9591832685</t>
+  </si>
+  <si>
+    <t>M VENKAT GOUTHAM</t>
+  </si>
+  <si>
+    <t>mvenkatgoutham@gmail.com</t>
+  </si>
+  <si>
+    <t>6366167269</t>
+  </si>
+  <si>
+    <t>ACHARYA INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Sangamesh</t>
+  </si>
+  <si>
+    <t>sangameshraiwade@gmail.com</t>
+  </si>
+  <si>
+    <t>6361081049</t>
+  </si>
+  <si>
+    <t>Pratham P</t>
+  </si>
+  <si>
+    <t>prathamacharya804@gmail.com</t>
+  </si>
+  <si>
+    <t>8660140579</t>
+  </si>
+  <si>
+    <t>Neha D</t>
+  </si>
+  <si>
+    <t>nehad.22.beee@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>6304413398</t>
+  </si>
+  <si>
+    <t>Ananya M S</t>
+  </si>
+  <si>
+    <t>ananyams0123@gmail.com</t>
+  </si>
+  <si>
+    <t>6360238065</t>
+  </si>
+  <si>
+    <t>Mamata patil</t>
+  </si>
+  <si>
+    <t>mamataamitbiradar@gmail.com</t>
+  </si>
+  <si>
+    <t>8088778441</t>
+  </si>
+  <si>
+    <t>Prajwal N</t>
+  </si>
+  <si>
+    <t>prajwalnagraj19@gmail.com</t>
+  </si>
+  <si>
+    <t>8951558923</t>
+  </si>
+  <si>
+    <t>jeevan N</t>
+  </si>
+  <si>
+    <t>jeevancn65@gmail.com</t>
+  </si>
+  <si>
+    <t>7019067205</t>
+  </si>
+  <si>
+    <t>Laxmi B Dharwad</t>
+  </si>
+  <si>
+    <t>laxmilaxmi11923@gmail.com</t>
+  </si>
+  <si>
+    <t>7625070669</t>
+  </si>
+  <si>
+    <t>Arun H</t>
+  </si>
+  <si>
+    <t>gowdaarun763@gmail.com</t>
+  </si>
+  <si>
+    <t>7676744633</t>
+  </si>
+  <si>
+    <t>ACS College of Engineering</t>
+  </si>
+  <si>
+    <t>Ravishankar Ta</t>
+  </si>
+  <si>
+    <t>ravishankarta939@gmail.com</t>
+  </si>
+  <si>
+    <t>8971629097</t>
   </si>
 </sst>
 </file>
@@ -13857,9 +14667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7A45C-9C6E-4743-99CB-C66AFD9C9EA6}">
-  <dimension ref="A1:G1735"/>
+  <dimension ref="A1:G1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1826" workbookViewId="0">
+      <selection activeCell="B1840" sqref="B1840"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -53768,6 +54580,2283 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1736" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1736" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1737" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1738" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1739" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1740" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1741" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1742" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1743" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1744" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1745" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1745" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1746" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1747" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1748" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1749" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1749" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1750" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1751" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1752" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>4525</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1753" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1754" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1755" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1755" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1756" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>4537</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1757" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>4541</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1758" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>4544</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1759" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>4546</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1760" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>4549</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1761" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>4552</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1762" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>4555</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1762" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1763" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>4558</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1763" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1764" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1764" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1765" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1765" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1766" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>4567</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1766" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1767" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>4570</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1768" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1769" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1770" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>4579</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1771" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1772" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1773" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1774" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1775" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1776" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1777" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>953</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1778" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1779" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1780" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1781" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1782" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1783" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1784" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1785" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1786" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1787" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1788" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1789" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>4624</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1790" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>4627</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1791" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>4630</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1792" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1793" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>4636</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1794" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>4639</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1795" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1796" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1797" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>4648</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1798" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1799" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1800" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1801" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>4660</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1802" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1803" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>883</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1804" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>883</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1805" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1806" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1807" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>4675</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1808" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>4675</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1809" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>4679</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1810" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>4682</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1811" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>4684</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1812" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>4688</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1813" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>4691</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1814" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>4694</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1815" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>4696</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1816" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>4698</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1817" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1818" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1819" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>4708</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1820" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>4711</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1821" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>4714</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1822" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1823" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>4719</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>4720</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>4721</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1824" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>4719</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>4720</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>4721</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1825" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>4724</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1826" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>4727</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>836</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1827" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>4730</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>4721</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1828" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1829" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>4736</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1830" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>4739</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1831" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>4741</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1832" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>4744</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>4745</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>836</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1833" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>4747</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>4748</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1834" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>4752</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E0ED9-E6AC-421E-B16F-C9E3469860B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32711C49-DA4E-4E98-B68A-63D1230F9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E7B0F93-C516-41EF-8E35-407EA485BE71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12838" uniqueCount="4753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12908" uniqueCount="4768">
   <si>
     <t>Aziz Ahamed Patel</t>
   </si>
@@ -14293,6 +14293,51 @@
   </si>
   <si>
     <t>8971629097</t>
+  </si>
+  <si>
+    <t>Ramesh Chigarer</t>
+  </si>
+  <si>
+    <t>rameshnc17@gmail.com</t>
+  </si>
+  <si>
+    <t>6363685035</t>
+  </si>
+  <si>
+    <t>Manjunatha V R</t>
+  </si>
+  <si>
+    <t>manjunatha.vrm.153@gmail.com</t>
+  </si>
+  <si>
+    <t>8970896619</t>
+  </si>
+  <si>
+    <t>Shreyanka Dengi</t>
+  </si>
+  <si>
+    <t>shreyankaprabhudev@gmail.com</t>
+  </si>
+  <si>
+    <t>7019607310</t>
+  </si>
+  <si>
+    <t>Sourabh prakash hasarangi</t>
+  </si>
+  <si>
+    <t>sourabhph26@gmail.com</t>
+  </si>
+  <si>
+    <t>9353981499</t>
+  </si>
+  <si>
+    <t>Deepthi Dharmendra</t>
+  </si>
+  <si>
+    <t>deepthidharmendra27@gmail.com</t>
+  </si>
+  <si>
+    <t>8971244821</t>
   </si>
 </sst>
 </file>
@@ -14667,10 +14712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7A45C-9C6E-4743-99CB-C66AFD9C9EA6}">
-  <dimension ref="A1:G1834"/>
+  <dimension ref="A1:G1844"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1826" workbookViewId="0">
-      <selection activeCell="B1840" sqref="B1840"/>
+      <selection activeCell="A1844" sqref="A1844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56857,6 +56902,236 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1835" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1835" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>4755</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1836" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1837" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1838" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>4757</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>4758</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1839" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>4761</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1840" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1841" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1842" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1843" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>4766</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>4767</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1844" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32711C49-DA4E-4E98-B68A-63D1230F9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D760D-781B-44DC-93A8-F652B002337D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E7B0F93-C516-41EF-8E35-407EA485BE71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12908" uniqueCount="4768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12964" uniqueCount="4775">
   <si>
     <t>Aziz Ahamed Patel</t>
   </si>
@@ -14338,6 +14338,27 @@
   </si>
   <si>
     <t>8971244821</t>
+  </si>
+  <si>
+    <t>Gourishankar Ramesh Bani</t>
+  </si>
+  <si>
+    <t>sce22cs119@sairamtap.edu.in</t>
+  </si>
+  <si>
+    <t>7892985659</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rr1950673@gmail.com</t>
+  </si>
+  <si>
+    <t>6363138371</t>
+  </si>
+  <si>
+    <t>Guru Nanak Dev College of Engineering, Bidar</t>
   </si>
 </sst>
 </file>
@@ -14712,11 +14733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7A45C-9C6E-4743-99CB-C66AFD9C9EA6}">
-  <dimension ref="A1:G1844"/>
+  <dimension ref="A1:G1852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1826" workbookViewId="0">
-      <selection activeCell="A1844" sqref="A1844"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -57132,6 +57151,190 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1845" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1845" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>4770</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1846" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>4773</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>4774</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1847" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>4546</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1848" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1849" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1850" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>4660</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1851" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1852" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D760D-781B-44DC-93A8-F652B002337D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8188483-04CD-4E00-B033-BC396C371AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E7B0F93-C516-41EF-8E35-407EA485BE71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12964" uniqueCount="4775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12970" uniqueCount="4777">
   <si>
     <t>Aziz Ahamed Patel</t>
   </si>
@@ -14359,6 +14359,12 @@
   </si>
   <si>
     <t>Guru Nanak Dev College of Engineering, Bidar</t>
+  </si>
+  <si>
+    <t>KHAJA MOINUDDIN</t>
+  </si>
+  <si>
+    <t>khajamoinuddin283@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -14733,7 +14739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7A45C-9C6E-4743-99CB-C66AFD9C9EA6}">
-  <dimension ref="A1:G1852"/>
+  <dimension ref="A1:G1853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57335,6 +57341,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1853" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1853" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C1853">
+        <v>9620894390</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
